--- a/biology/Zoologie/Grammostola/Grammostola.xlsx
+++ b/biology/Zoologie/Grammostola/Grammostola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grammostola est un genre d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grammostola est un genre d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces mygales sont souvent brunes avec des poils roses.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 09/06/2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 09/06/2023) :
 Grammostola actaeon (Pocock, 1903)
 Grammostola alticeps (Pocock, 1903)
 Grammostola andreleetzi Vol, 2008
@@ -623,12 +641,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Simon en 1892 dans les Aviculariidae.
-Sorata[2] a été placé en synonymie par Raven en 1985[3].
-Lasiocnemus Ausserer, 1871[4], préoccupé par Lasiocnemus Loew, 1851, remplacé par Lasiopelma[5] a été placé en synonymie par Schmidt en 1994[6].
-Polyspina Schmidt, 1994[7], préoccupé par Polyspina Hardy, 1983, remplacé par Polyspinosa[8] a été placé en synonymie par Bertani et Fukushima en 2004[9].
+Sorata a été placé en synonymie par Raven en 1985.
+Lasiocnemus Ausserer, 1871, préoccupé par Lasiocnemus Loew, 1851, remplacé par Lasiopelma a été placé en synonymie par Schmidt en 1994.
+Polyspina Schmidt, 1994, préoccupé par Polyspina Hardy, 1983, remplacé par Polyspinosa a été placé en synonymie par Bertani et Fukushima en 2004.
 </t>
         </is>
       </c>
@@ -657,7 +677,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1892 : Histoire naturelle des araignées. Paris, vol. 1, p. 1-256 (texte intégral).</t>
         </is>
